--- a/PROS_timesheet.xlsx
+++ b/PROS_timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Personal\Coding Challenges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E714D7-E3C1-4FC8-8D08-D208A1D06170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C97EF8F-0200-4391-B004-6A13E36346CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8EFE6B73-BA09-4E99-B916-0C8EF1FF0D30}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>Time</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>https://github.com/MacksEntropy/Codered_PROS/commit/00b24b83c892944b90718a55b9905f3a5850f35d</t>
+  </si>
+  <si>
+    <t>https://github.com/MacksEntropy/Codered_PROS/commit/f132bd48909ad6758e429a96bf87443a707490fd</t>
+  </si>
+  <si>
+    <t>https://github.com/MacksEntropy/Codered_PROS/commit/6d9a7190737b2689e4ef461318a141f78ed5925c</t>
+  </si>
+  <si>
+    <t>Completed spaCy online tutorial from website up to chapter 3</t>
+  </si>
+  <si>
+    <t>Chose nlp library (spaCy) and flight API (amadeus). Created high level plan for webapp.</t>
   </si>
 </sst>
 </file>
@@ -446,7 +458,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,6 +503,9 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -535,6 +550,9 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -568,6 +586,9 @@
       <c r="C10" t="s">
         <v>6</v>
       </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -601,6 +622,9 @@
       <c r="C13" t="s">
         <v>6</v>
       </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -612,14 +636,20 @@
       <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7</v>
       </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -794,7 +824,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1" xr:uid="{0B705F28-5B5C-4F65-AD20-F0EACF73B605}"/>
+    <hyperlink ref="D15" r:id="rId1" xr:uid="{0B705F28-5B5C-4F65-AD20-F0EACF73B605}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PROS_timesheet.xlsx
+++ b/PROS_timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Personal\Coding Challenges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C97EF8F-0200-4391-B004-6A13E36346CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F170E1-1577-4A97-AD0A-089844F35FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8EFE6B73-BA09-4E99-B916-0C8EF1FF0D30}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>Time</t>
   </si>
@@ -87,6 +87,33 @@
   </si>
   <si>
     <t>Chose nlp library (spaCy) and flight API (amadeus). Created high level plan for webapp.</t>
+  </si>
+  <si>
+    <t>Made confirm_itinerary more robust</t>
+  </si>
+  <si>
+    <t>https://github.com/MacksEntropy/Codered_PROS/commit/2b5e342add832311e987a197d8c17c10655e851c</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>https://github.com/MacksEntropy/Codered_PROS/commit/29376d7c7d94f97aa2ffa947441d2e8d3f5fcae9</t>
+  </si>
+  <si>
+    <t>Added patterns for origin and dest</t>
+  </si>
+  <si>
+    <t>Added date pattern and additional prompt for number of tickets.</t>
+  </si>
+  <si>
+    <t>Create get_IATA_Code method</t>
+  </si>
+  <si>
+    <t>Make modules into classes</t>
+  </si>
+  <si>
+    <t>https://github.com/MacksEntropy/Codered_PROS/commit/59bf34f1f345a029cbf6076eb67ed07c3a1ebb1d</t>
   </si>
 </sst>
 </file>
@@ -458,12 +485,12 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I21" sqref="I21:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
     <col min="3" max="3" width="11.109375" customWidth="1"/>
     <col min="4" max="4" width="98.109375" customWidth="1"/>
   </cols>
@@ -655,83 +682,131 @@
       <c r="A16">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>10.5</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>11.5</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>12.5</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>13.5</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>14.5</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>15.5</v>
       </c>

--- a/PROS_timesheet.xlsx
+++ b/PROS_timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Personal\Coding Challenges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F170E1-1577-4A97-AD0A-089844F35FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDE90E9-E4D1-4309-95B5-A000DADC7B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8EFE6B73-BA09-4E99-B916-0C8EF1FF0D30}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>Time</t>
   </si>
@@ -114,6 +114,36 @@
   </si>
   <si>
     <t>https://github.com/MacksEntropy/Codered_PROS/commit/59bf34f1f345a029cbf6076eb67ed07c3a1ebb1d</t>
+  </si>
+  <si>
+    <t>Set up API for chatbot</t>
+  </si>
+  <si>
+    <t>https://github.com/MacksEntropy/Codered_PROS/commit/9cb76374efcfad71c65d0a7f6a3ed6410bbdb092</t>
+  </si>
+  <si>
+    <t>Created initial webapp</t>
+  </si>
+  <si>
+    <t>https://github.com/MacksEntropy/Codered_PROS/commit/010064c5cbbd2c7238423fb262a4eac12a7b0ec1</t>
+  </si>
+  <si>
+    <t>Fixed bug with user messages</t>
+  </si>
+  <si>
+    <t>https://github.com/MacksEntropy/Codered_PROS/commit/acf64b97b66b5924c38c1b902585c72d6ff6c134</t>
+  </si>
+  <si>
+    <t>https://github.com/MacksEntropy/Codered_PROS/commit/3537c190539025050d1bff98e59dd164c23b17d1</t>
+  </si>
+  <si>
+    <t>https://github.com/MacksEntropy/Codered_PROS/commit/a35d5a790100420e49193f5c4f9f70a46d787f4c</t>
+  </si>
+  <si>
+    <t>Refactored nlp module for conversation like dialouge</t>
+  </si>
+  <si>
+    <t>Created framework for backend API</t>
   </si>
 </sst>
 </file>
@@ -484,13 +514,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6528202E-6A02-44D7-B252-69B48F3BC957}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21:I22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="3" width="11.109375" customWidth="1"/>
     <col min="4" max="4" width="98.109375" customWidth="1"/>
   </cols>
@@ -760,45 +790,114 @@
       <c r="A22">
         <v>10.5</v>
       </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>11</v>
       </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>11.5</v>
       </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>12</v>
       </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>12.5</v>
       </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>13</v>
       </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>13.5</v>
       </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>14</v>
       </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>14.5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">

--- a/PROS_timesheet.xlsx
+++ b/PROS_timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Personal\Coding Challenges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDE90E9-E4D1-4309-95B5-A000DADC7B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0053E48-0366-4EE9-8332-71BA3072E224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8EFE6B73-BA09-4E99-B916-0C8EF1FF0D30}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="54">
   <si>
     <t>Time</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Added patterns for origin and dest</t>
   </si>
   <si>
-    <t>Added date pattern and additional prompt for number of tickets.</t>
-  </si>
-  <si>
     <t>Create get_IATA_Code method</t>
   </si>
   <si>
@@ -144,6 +141,63 @@
   </si>
   <si>
     <t>Created framework for backend API</t>
+  </si>
+  <si>
+    <t>Added helper function in nlp module</t>
+  </si>
+  <si>
+    <t>Improved routing in chatbot_api</t>
+  </si>
+  <si>
+    <t>https://github.com/MacksEntropy/Codered_PROS/commit/96ecb5771630309b6c337f4444050243be26ba49</t>
+  </si>
+  <si>
+    <t>Integrated amadeus_interface into chatbot_api</t>
+  </si>
+  <si>
+    <t>https://github.com/MacksEntropy/Codered_PROS/commit/844746e09cbf98a39c31c7a8d4de7f495bfef22b</t>
+  </si>
+  <si>
+    <t>Connected chatbot_api with frontend</t>
+  </si>
+  <si>
+    <t>Improve how bot messages are displayed</t>
+  </si>
+  <si>
+    <t>https://github.com/MacksEntropy/Codered_PROS/commit/e0e15b2a6e1028416d3849621fae1c541edaa5bf</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Base functionallity reached</t>
+  </si>
+  <si>
+    <t>https://github.com/MacksEntropy/Codered_PROS/commit/ba11b06be6adffffae008de7a776a9aab4049342</t>
+  </si>
+  <si>
+    <t>Added logic for commom errors in inputs</t>
+  </si>
+  <si>
+    <t>https://github.com/MacksEntropy/Codered_PROS/commit/e7970e0afece9e470ff32532444ee500d69352ef</t>
+  </si>
+  <si>
+    <t>Q&amp;A testing</t>
+  </si>
+  <si>
+    <t>GitHub Release</t>
+  </si>
+  <si>
+    <t>Need to improve how nlp module identifes proper nouns. Add return date feature</t>
+  </si>
+  <si>
+    <t>https://github.com/MacksEntropy/Codered_PROS/commit/3d5c92315b1933af2460f1b4ccd50281db34a274</t>
+  </si>
+  <si>
+    <t>Final touches, created propn feature branch</t>
+  </si>
+  <si>
+    <t>https://github.com/MacksEntropy/Flights_Chatbot/releases/tag/1.0.0</t>
   </si>
 </sst>
 </file>
@@ -216,9 +270,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -256,7 +310,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -362,7 +416,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -504,7 +558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -514,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6528202E-6A02-44D7-B252-69B48F3BC957}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,9 +797,6 @@
       <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -766,7 +817,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
@@ -777,13 +828,13 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -791,7 +842,7 @@
         <v>10.5</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -802,13 +853,13 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
         <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -816,7 +867,7 @@
         <v>11.5</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -827,13 +878,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
         <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -841,13 +892,13 @@
         <v>12.5</v>
       </c>
       <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
         <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -855,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -866,7 +917,7 @@
         <v>13.5</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -877,13 +928,13 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -891,108 +942,246 @@
         <v>14.5</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>15</v>
       </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>21</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>23</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>24</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
